--- a/docs/assets/disciplinas/LOM3245.xlsx
+++ b/docs/assets/disciplinas/LOM3245.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar o aluno em técnicas de microscopia eletrônica de transmissão, microscopia de força atômica e difração de nêutrons.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,44 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Microscopia eletrônica de transmissão (MET) e microscopia de força atômica (AFM).</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Princípios gerais da óptica eletrônica. Conceito de resolução. Constituição e funcionamento do microscópio eletrônico de transmissão. Técnicas de preparo de amostras; ultramicrotomia. Manuseio do microscópio eletrônico de transmissão e ultramicrótomo. Geração de imagens, interpretação e registro Exemplos de aplicações da microscopia eletrônica de transmissão. Fundamentos de microscopia de força atômica (AFM). Instrumentação eletrônica. Modos de AFM. Medição e tratamento de imagens de AFM. Aplicações de AFM.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>WILLIAMS, D. B.; CARTER, C. B., Transmission Electron Microscopy: A Textbook for Materials Science, Springer, 2009.
 WILLIAMS, D. B.; CARTER, C. B., Transmission Electron Microscopy: A Textbook for Materials Science, Springer, 2009.
-BOZZOLA, J. J.; RUSSELL, L. D. Electron Microscopy, Boston, Jones &amp; Bartlett, 1999.
-HUNTER, E. Practical Electron Microscopy, Cambridge University Press, 1993.
-REIMER, L.; KOHL, H., Transmission Electron Microscopy: Physics of Image Formation, Springer, 2008.
-EATON, P.; WEST, P. Atomic Force Microscopy, Oxford University Press, 2010.
-MORITA, S.; WIESENDANGER, R.; MEYER, E. Noncontact Atomic Force Microscopy, Springer, 2002.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>WILLIAMS, D. B.; CARTER, C. B., Transmission Electron Microscopy: A Textbook for Materials Science, Springer, 2009.
 BOZZOLA, J. J.; RUSSELL, L. D. Electron Microscopy, Boston, Jones &amp; Bartlett, 1999.
 HUNTER, E. Practical Electron Microscopy, Cambridge University Press, 1993.
 REIMER, L.; KOHL, H., Transmission Electron Microscopy: Physics of Image Formation, Springer, 2008.
@@ -505,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,56 +613,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -694,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -705,47 +694,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
